--- a/written_files/errors_with_debug_notes.xlsx
+++ b/written_files/errors_with_debug_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlson\PycharmProjects\grahamBot\written_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A556149-F2DD-4408-A8AB-02EA990825FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD3FE98E-39EC-4E90-A30C-4DDC71E9C82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="1695" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>rank</t>
   </si>
@@ -134,6 +134,60 @@
   </si>
   <si>
     <t>Polaris Industries</t>
+  </si>
+  <si>
+    <t>My notes</t>
+  </si>
+  <si>
+    <t>Could not be found with both words, but could be found with just 'Polaris' on marketwatch as Polaris Inc.</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>They changed their name to Polaris Inc. in July 2019</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>They were purchased by Cleveland Cliffs</t>
+  </si>
+  <si>
+    <t>Could be found using 'Packaging Corp.' and 'Packaging' on marketwatch</t>
+  </si>
+  <si>
+    <t>Not publicly traded</t>
+  </si>
+  <si>
+    <t>Just 'newmont' works on marketwatch</t>
+  </si>
+  <si>
+    <t>They are a mutual insurance company, so not publicly traded</t>
+  </si>
+  <si>
+    <t>Can be found through 'erie' on marketwatch then scanning page for ' erie ' word</t>
+  </si>
+  <si>
+    <t>Erie Insurance Group is the parent of erie indemnity company</t>
+  </si>
+  <si>
+    <t>O'Reilly Automotive</t>
+  </si>
+  <si>
+    <t>could not find info on macrotrends</t>
+  </si>
+  <si>
+    <t>Can't use macrotrends, need backup website, only work on backup if there are lots of this error</t>
+  </si>
+  <si>
+    <t>Use backup algorithm on market watch or use backup website</t>
+  </si>
+  <si>
+    <t>they were acquired by wesco international 'WCC'</t>
+  </si>
+  <si>
+    <t>Not publicly traded, also called (edward jones)</t>
   </si>
 </sst>
 </file>
@@ -974,13 +1028,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,8 +1054,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
@@ -1002,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -1013,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>71</v>
       </c>
@@ -1024,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>73</v>
       </c>
@@ -1035,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>75</v>
       </c>
@@ -1046,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>84</v>
       </c>
@@ -1057,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>91</v>
       </c>
@@ -1068,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>104</v>
       </c>
@@ -1079,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>111</v>
       </c>
@@ -1090,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>201</v>
       </c>
@@ -1101,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>212</v>
       </c>
@@ -1112,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>237</v>
       </c>
@@ -1123,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>244</v>
       </c>
@@ -1134,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>270</v>
       </c>
@@ -1145,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>278</v>
       </c>
@@ -1156,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>285</v>
       </c>
@@ -1167,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>298</v>
       </c>
@@ -1178,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>304</v>
       </c>
@@ -1189,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>306</v>
       </c>
@@ -1200,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>332</v>
       </c>
@@ -1211,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>336</v>
       </c>
@@ -1222,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>340</v>
       </c>
@@ -1233,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>350</v>
       </c>
@@ -1244,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>351</v>
       </c>
@@ -1254,8 +1327,11 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>356</v>
       </c>
@@ -1265,8 +1341,11 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>364</v>
       </c>
@@ -1276,8 +1355,11 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>381</v>
       </c>
@@ -1287,8 +1369,17 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>382</v>
       </c>
@@ -1298,8 +1389,11 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>419</v>
       </c>
@@ -1309,8 +1403,11 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>423</v>
       </c>
@@ -1320,8 +1417,11 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>432</v>
       </c>
@@ -1331,8 +1431,11 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>443</v>
       </c>
@@ -1342,8 +1445,14 @@
       <c r="C33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>476</v>
       </c>
@@ -1352,6 +1461,26 @@
       </c>
       <c r="C34" t="s">
         <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>329</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/written_files/errors_with_debug_notes.xlsx
+++ b/written_files/errors_with_debug_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlson\PycharmProjects\grahamBot\written_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlsoncheng/PycharmProjects/grahamBot/written_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD3FE98E-39EC-4E90-A30C-4DDC71E9C82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD06E1-1D4D-E747-87B2-28D257778838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>rank</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Can be found through 'erie' on marketwatch then scanning page for ' erie ' word</t>
   </si>
   <si>
-    <t>Erie Insurance Group is the parent of erie indemnity company</t>
-  </si>
-  <si>
     <t>O'Reilly Automotive</t>
   </si>
   <si>
@@ -188,12 +185,75 @@
   </si>
   <si>
     <t>Not publicly traded, also called (edward jones)</t>
+  </si>
+  <si>
+    <t>Private company</t>
+  </si>
+  <si>
+    <t>you need to type in fox</t>
+  </si>
+  <si>
+    <t>merged with united technologies</t>
+  </si>
+  <si>
+    <t>mutual insurance company</t>
+  </si>
+  <si>
+    <t>name changed to raytheon</t>
+  </si>
+  <si>
+    <t>private and mutual insurance company no stock available</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>bought by United natural foods</t>
+  </si>
+  <si>
+    <t>acquired by occidental petroleun</t>
+  </si>
+  <si>
+    <t>subisidiary of zurich insurance which is not a us company</t>
+  </si>
+  <si>
+    <t>only "Laboratory Corp." works</t>
+  </si>
+  <si>
+    <t>merged with BB&amp;T</t>
+  </si>
+  <si>
+    <t>acquired by FISERV</t>
+  </si>
+  <si>
+    <t>acquired by CIT group</t>
+  </si>
+  <si>
+    <t>name change to ODP</t>
+  </si>
+  <si>
+    <t>Oshkosh</t>
+  </si>
+  <si>
+    <t>its not at the top of the list</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>opens a new website when searched (BECAUSE ITS NAME IS LITERALLY THE TICKER!!!)</t>
+  </si>
+  <si>
+    <t>UGI</t>
+  </si>
+  <si>
+    <t>NCR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +568,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,8 +737,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,24 +1094,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36</v>
       </c>
@@ -1074,8 +1141,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>46</v>
       </c>
@@ -1085,8 +1155,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>71</v>
       </c>
@@ -1096,8 +1169,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>73</v>
       </c>
@@ -1107,8 +1183,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>75</v>
       </c>
@@ -1118,8 +1197,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>84</v>
       </c>
@@ -1129,8 +1211,11 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>91</v>
       </c>
@@ -1140,19 +1225,25 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>111</v>
       </c>
@@ -1162,8 +1253,11 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>201</v>
       </c>
@@ -1173,8 +1267,11 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>212</v>
       </c>
@@ -1184,8 +1281,11 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>237</v>
       </c>
@@ -1195,8 +1295,11 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>244</v>
       </c>
@@ -1206,8 +1309,11 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>270</v>
       </c>
@@ -1217,19 +1323,25 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>278</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>285</v>
       </c>
@@ -1239,8 +1351,11 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>298</v>
       </c>
@@ -1250,8 +1365,11 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>304</v>
       </c>
@@ -1261,8 +1379,11 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>306</v>
       </c>
@@ -1272,8 +1393,11 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>332</v>
       </c>
@@ -1283,8 +1407,11 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>336</v>
       </c>
@@ -1294,8 +1421,11 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>340</v>
       </c>
@@ -1305,8 +1435,11 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>350</v>
       </c>
@@ -1316,8 +1449,11 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>351</v>
       </c>
@@ -1331,7 +1467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>356</v>
       </c>
@@ -1342,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>364</v>
       </c>
@@ -1356,30 +1492,30 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>381</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>382</v>
       </c>
@@ -1393,7 +1529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>419</v>
       </c>
@@ -1407,7 +1543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>423</v>
       </c>
@@ -1421,7 +1557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>432</v>
       </c>
@@ -1435,7 +1571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>443</v>
       </c>
@@ -1452,7 +1588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>476</v>
       </c>
@@ -1469,18 +1605,50 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>329</v>
       </c>
       <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
-        <v>52</v>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
